--- a/SQoop.xlsx
+++ b/SQoop.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shashankjain/Desktop/Imp_notes/Summary_notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5644EF3A-82BE-4F43-AA70-0071084CB294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73133E39-0513-064E-AD37-3E04E9DD3528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{A9C5D1DC-A635-B042-9B18-60828D0B177A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Details" sheetId="1" r:id="rId1"/>
+    <sheet name="Import summ" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>sqoop help</t>
   </si>
@@ -133,6 +134,27 @@
   <si>
     <t>sqoop lastmodified import</t>
   </si>
+  <si>
+    <t>Sqoop job</t>
+  </si>
+  <si>
+    <t>sqoop job --list</t>
+  </si>
+  <si>
+    <t>To See all the all sqoop job</t>
+  </si>
+  <si>
+    <t>sqoop job --show &lt;job name&gt;</t>
+  </si>
+  <si>
+    <t>To see details of sqoo job</t>
+  </si>
+  <si>
+    <t>sqoop job --delete &lt;job name&gt;</t>
+  </si>
+  <si>
+    <t>To delete the sqoop job</t>
+  </si>
 </sst>
 </file>
 
@@ -182,7 +204,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -193,6 +215,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -283,13 +308,13 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-GB" sz="1100" baseline="0"/>
-            <a:t> connect Sqoop to relational database you need 3 things. 1) connection</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
-            <a:t>2) username 3) password.       </a:t>
+            <a:t> connect Sqoop to relational database you need 3 things. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>1) connection2) username 3) password.       </a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -520,13 +545,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-GB" sz="1100" baseline="0"/>
-            <a:t>          =&gt; You can get hostname with linux hostname command also if you working in a local    </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
-            <a:t>                  environment</a:t>
+            <a:t>          =&gt; You can get hostname with linux hostname command also if you working in a local    environment</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1831,9 +1850,6 @@
           </a:r>
         </a:p>
         <a:p>
-          <a:endParaRPr lang="en-GB" sz="1200" baseline="0"/>
-        </a:p>
-        <a:p>
           <a:r>
             <a:rPr lang="en-GB" sz="1200" baseline="0"/>
             <a:t>--compression-codec BZip2Codec /</a:t>
@@ -2371,7 +2387,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>82176</xdr:colOff>
+      <xdr:colOff>149412</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>59764</xdr:rowOff>
     </xdr:from>
@@ -2394,8 +2410,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2368176" y="20080940"/>
-          <a:ext cx="5378824" cy="1292413"/>
+          <a:off x="2435412" y="21589999"/>
+          <a:ext cx="5311588" cy="1292413"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2455,13 +2471,13 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-GB" sz="1100" baseline="0"/>
-            <a:t>=&gt; We can customize number number which will run on query by </a:t>
+            <a:t>=&gt; We can customize number of mappers which will run on query by </a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-GB" sz="1100" b="1"/>
-            <a:t>-- m1   </a:t>
+            <a:t>m8</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -2590,13 +2606,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>74706</xdr:colOff>
+      <xdr:colOff>74705</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>44824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>5438588</xdr:colOff>
+      <xdr:colOff>7119471</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>7470</xdr:rowOff>
     </xdr:to>
@@ -2613,8 +2629,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2360706" y="22860000"/>
-          <a:ext cx="5363882" cy="2442882"/>
+          <a:off x="2360705" y="23241000"/>
+          <a:ext cx="7044766" cy="3503705"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2694,6 +2710,18 @@
           <a:r>
             <a:rPr lang="en-GB" sz="1200" b="1" baseline="0"/>
             <a:t>-- boundary-query "SELECT 1, 68883" \</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1200" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1200" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="1" baseline="0"/>
+            <a:t>Note: Later on we will add those outliers with a serate append.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -3178,7 +3206,10 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:ln w="9525" cmpd="sng">
           <a:solidFill>
@@ -3976,7 +4007,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>5401235</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>1486647</xdr:rowOff>
+      <xdr:rowOff>1919942</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3991,8 +4022,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2375647" y="39370000"/>
-          <a:ext cx="5311588" cy="1464235"/>
+          <a:off x="2375647" y="39130941"/>
+          <a:ext cx="5311588" cy="1897530"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4153,6 +4184,133 @@
             <a:rPr lang="en-GB" sz="1100" baseline="0"/>
             <a:t>--fields-terminated-by ',' \</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-GB" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-GB" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>=&gt; Make sure to create a table in RDBMS before transferring data</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t> from HDFS.&gt; </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-GB" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-GB" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-GB" sz="1100" baseline="0"/>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -4334,16 +4492,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-GB" sz="1100" baseline="0"/>
-            <a:t> from HDFS.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-GB" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
-            <a:t>=&gt; </a:t>
+            <a:t> from HDFS.&gt; </a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4353,15 +4502,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2256117</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>1621119</xdr:rowOff>
+      <xdr:colOff>2278529</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>74708</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5662706</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>2465965</xdr:rowOff>
+      <xdr:rowOff>2570554</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4384,7 +4533,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2256117" y="40968707"/>
+          <a:off x="2278529" y="41342237"/>
           <a:ext cx="5670177" cy="2495846"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4402,8 +4551,8 @@
       <xdr:rowOff>2607234</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>129987</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5643281</xdr:colOff>
       <xdr:row>57</xdr:row>
       <xdr:rowOff>157809</xdr:rowOff>
     </xdr:to>
@@ -4490,10 +4639,10 @@
       <xdr:rowOff>22265</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>336177</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5849471</xdr:colOff>
       <xdr:row>83</xdr:row>
-      <xdr:rowOff>170498</xdr:rowOff>
+      <xdr:rowOff>170499</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4535,7 +4684,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1128059</xdr:colOff>
+      <xdr:colOff>762000</xdr:colOff>
       <xdr:row>97</xdr:row>
       <xdr:rowOff>133018</xdr:rowOff>
     </xdr:to>
@@ -4579,7 +4728,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2356224</xdr:colOff>
+      <xdr:colOff>1990165</xdr:colOff>
       <xdr:row>121</xdr:row>
       <xdr:rowOff>187992</xdr:rowOff>
     </xdr:to>
@@ -6022,11 +6171,1289 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>59766</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>14941</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5446060</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>3369236</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="TextBox 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B8E6F62-69FB-0273-11CF-8DAE9D30CFF4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2345766" y="66772117"/>
+          <a:ext cx="5386294" cy="3354295"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1" baseline="0"/>
+            <a:t>Creating a sqoop job</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>sqoop job \</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>-Dhadoop.security.credential.provider.path=jceks://hdfs/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" u="sng" baseline="0"/>
+            <a:t>password/password.jceks \</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>--create new_orders \</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>-- import \</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>--connect "jdbc:mysql://quickstart.cloudera:3306/retail_db" \</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>--username root \</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>--password-alias mypassword \</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>--table orders \</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>--warehouse-dir /data \</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>--incremental append \</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>--check-column order_id \</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>--last-value 0 \</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1"/>
+            <a:t>executing a sqoo</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1" baseline="0"/>
+            <a:t> job</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0"/>
+            <a:t>sqoop job --exec &lt;job</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0" baseline="0"/>
+            <a:t> name&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>44824</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>358588</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2211294" cy="2868705"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="TextBox 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C0F5F1E-CFC7-8AB4-0487-3FE0BCD54320}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="44824" y="69805176"/>
+          <a:ext cx="2211294" cy="2868705"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>During incremental</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t> import we have to provide last-value every and everytime and our password was also visible. With Sqoop job now we don't to enter provide --last-value every time. It will be stored autometically. </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>149412</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>82177</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>5408706</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>3249706</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="TextBox 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CCBA9A5-C347-C055-5C48-88EB98EB83D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7948706" y="66839353"/>
+          <a:ext cx="5259294" cy="3167529"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>hadoop credential create </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1"/>
+            <a:t>mypassword</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t> -provider jceks://hdfs</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1" u="sng" baseline="0"/>
+            <a:t>/password/password.jceks</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="1100" b="1" u="sng" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="1100" b="1" u="sng" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="1100" b="1" u="sng" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="1100" b="1" u="sng" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="1100" b="1" u="sng" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="1100" b="1" u="sng" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="1100" b="1" u="sng" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="1100" b="1" u="sng" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="1100" b="1" u="sng" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="1100" b="1" u="sng" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="1100" b="1" u="sng" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0" u="none" baseline="0"/>
+            <a:t>=&gt; After providing this command it will password which will be stored in this file location</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100" b="0" u="none"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1083235</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>1008530</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1464235</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>2988236</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="Straight Arrow Connector 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B477D7DF-0562-206F-C1D8-DEB63A37C81B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3369235" y="67765706"/>
+          <a:ext cx="381000" cy="1979706"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2129117</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>254000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2144058</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>806824</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="53" name="Straight Arrow Connector 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62B16B71-CFA9-ACBD-02A8-13B8AE802465}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9928411" y="67011176"/>
+          <a:ext cx="14941" cy="552824"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1628587</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>821765</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2652058</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>1090706</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="Rectangle 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E0982E7-BA9C-FE29-8EC9-0D7C4F3EDCE1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9427881" y="67578941"/>
+          <a:ext cx="1023471" cy="268941"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>passwod</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t> alias</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4291106</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>286871</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4453965</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>1459754</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="55" name="Straight Arrow Connector 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{203C00CE-1825-E641-BA35-9C6176373AEE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="56" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12090400" y="67044047"/>
+          <a:ext cx="162859" cy="1172883"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3638177</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>1459754</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>5269752</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>1979707</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="Rectangle 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2418231-F2F1-AA48-97C5-BF489A46E5BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11437471" y="68216930"/>
+          <a:ext cx="1631575" cy="519953"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>file location where password will</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t> be stored</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1800412</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>1001059</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1606177</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>1688353</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="58" name="Straight Arrow Connector 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83468182-0FE6-1A1E-2CF7-0EA91E572824}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4086412" y="67758235"/>
+          <a:ext cx="5319059" cy="687294"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4101353</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>896471</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3638177</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>1719731</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="59" name="Straight Arrow Connector 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF8BD317-3CE1-8441-B890-FBCAA0CCC04F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="56" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6387353" y="67653647"/>
+          <a:ext cx="5050118" cy="823260"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="16167100" cy="4490140"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53BAC45B-F468-34CE-49F8-0FC9C5C825CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="812800" y="177800"/>
+          <a:ext cx="16167100" cy="4490140"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1800" b="1" dirty="0" err="1">
+              <a:effectLst/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>sqoop</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1800" b="1" dirty="0">
+              <a:effectLst/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>-import \</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN" sz="1800" dirty="0">
+            <a:effectLst/>
+            <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1800" dirty="0">
+              <a:effectLst/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>--connect   "</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1800" dirty="0" err="1">
+              <a:effectLst/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>jdbc</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1800" dirty="0">
+              <a:effectLst/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1800" dirty="0" err="1">
+              <a:effectLst/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>mysql</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1800" dirty="0">
+              <a:effectLst/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>://</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1800" u="sng" dirty="0">
+              <a:effectLst/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>quickstart.cloudera:3306</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1800" dirty="0">
+              <a:effectLst/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>/retail_db" \</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN" sz="1800" dirty="0">
+            <a:effectLst/>
+            <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1800" dirty="0">
+              <a:effectLst/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>--username root \</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN" sz="1800" dirty="0">
+            <a:effectLst/>
+            <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1800" dirty="0">
+              <a:effectLst/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>--P</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1800" dirty="0">
+              <a:effectLst/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>--table orders</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1800" dirty="0">
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>--columns </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1800" dirty="0" err="1">
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Cust_id,Customer_name</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1800" dirty="0">
+            <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1800" dirty="0">
+              <a:effectLst/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>--where </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1800" dirty="0" err="1">
+              <a:effectLst/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>purchase_date</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1800" dirty="0">
+              <a:effectLst/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> &gt; ‘2019-01-01’</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1800" b="0" dirty="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>--fields-terminated-by '|' \</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1800" b="0" dirty="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>--lines-terminated-by ';’ \</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1800" dirty="0">
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>--m8 | --</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1800" dirty="0" err="1">
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>num</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1800" dirty="0">
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>-mappers 8 \</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN" sz="1800" dirty="0">
+            <a:effectLst/>
+            <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1800" dirty="0">
+              <a:effectLst/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>--target-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1800" dirty="0" err="1">
+              <a:effectLst/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>dir</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1800" dirty="0">
+              <a:effectLst/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> /orders   |--warehouse-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1800" dirty="0" err="1">
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>dir</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1800" dirty="0">
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> /data/orders</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1800" dirty="0">
+              <a:effectLst/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>  # Note  target-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1800" dirty="0" err="1">
+              <a:effectLst/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>dir</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1800" dirty="0">
+              <a:effectLst/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> should be already existed. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1800" dirty="0">
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Else use </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1800" b="1" dirty="0">
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>--warehouse-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1800" b="1" dirty="0" err="1">
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>dir</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1800" dirty="0">
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>/ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1800" dirty="0">
+              <a:effectLst/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>  if you want   </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1800" dirty="0">
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>                                                                                                               </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1800" dirty="0">
+              <a:effectLst/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>table inside a existing directory</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1800" baseline="0" dirty="0"/>
+            <a:t>--as-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1800" baseline="0" dirty="0" err="1"/>
+            <a:t>avrodatafile</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1800" dirty="0"/>
+            <a:t>   | </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1800" baseline="0" dirty="0"/>
+            <a:t>--as-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1800" baseline="0" dirty="0" err="1"/>
+            <a:t>paraquetfile</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1800" b="1" baseline="0" dirty="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1800" b="1" baseline="0" dirty="0"/>
+            <a:t>--compress      | -z                  # files will be compressed and will save lot of storage space  by default </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1800" b="1" baseline="0" dirty="0" err="1"/>
+            <a:t>gzip</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1800" b="1" baseline="0" dirty="0"/>
+            <a:t> compression. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1800" b="0" dirty="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>--null-non-string "NA" \</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -6314,7 +7741,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6322,16 +7749,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F104814A-5DED-964D-95CC-DB87AE99B460}">
-  <dimension ref="A2:D130"/>
+  <sheetPr>
+    <tabColor theme="7" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A2:D135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="B133" sqref="B133"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="3" width="72.33203125" customWidth="1"/>
+    <col min="2" max="2" width="77.1640625" customWidth="1"/>
+    <col min="3" max="3" width="72.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2" ht="29" customHeight="1" x14ac:dyDescent="0.2">
@@ -6466,225 +7897,227 @@
       </c>
     </row>
     <row r="46" spans="1:2" ht="125" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" spans="1:1" ht="130" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1" ht="13" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" spans="1:1" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="51" spans="1:1" ht="170" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="304" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="5" t="s">
+      <c r="A52" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" s="5"/>
+      <c r="A53" s="6"/>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" s="5"/>
+      <c r="A54" s="6"/>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55" s="5"/>
+      <c r="A55" s="6"/>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56" s="5"/>
+      <c r="A56" s="6"/>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A57" s="5"/>
+      <c r="A57" s="6"/>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A58" s="5"/>
+      <c r="A58" s="6"/>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A59" s="5"/>
+      <c r="A59" s="6"/>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A60" s="5"/>
+      <c r="A60" s="6"/>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A61" s="5"/>
+      <c r="A61" s="6"/>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A62" s="5"/>
+      <c r="A62" s="6"/>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A63" s="5"/>
+      <c r="A63" s="6"/>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A64" s="5"/>
+      <c r="A64" s="6"/>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A65" s="5"/>
+      <c r="A65" s="6"/>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A66" s="5"/>
+      <c r="A66" s="6"/>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A67" s="5"/>
+      <c r="A67" s="6"/>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A68" s="5"/>
+      <c r="A68" s="6"/>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A69" s="5"/>
+      <c r="A69" s="6"/>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A70" s="5"/>
+      <c r="A70" s="6"/>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A71" s="5"/>
+      <c r="A71" s="6"/>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A72" s="5"/>
+      <c r="A72" s="6"/>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A73" s="5"/>
+      <c r="A73" s="6"/>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A74" s="5"/>
+      <c r="A74" s="6"/>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A75" s="5"/>
+      <c r="A75" s="6"/>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A76" s="5"/>
+      <c r="A76" s="6"/>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A77" s="5"/>
+      <c r="A77" s="6"/>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A78" s="5"/>
+      <c r="A78" s="6"/>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A79" s="5"/>
+      <c r="A79" s="6"/>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A80" s="5"/>
+      <c r="A80" s="6"/>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A81" s="5"/>
+      <c r="A81" s="6"/>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A82" s="5"/>
+      <c r="A82" s="6"/>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A83" s="5"/>
+      <c r="A83" s="6"/>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A84" s="5"/>
+      <c r="A84" s="6"/>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A85" s="5"/>
+      <c r="A85" s="6"/>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A86" s="5"/>
+      <c r="A86" s="6"/>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A87" s="5"/>
+      <c r="A87" s="6"/>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A88" s="5"/>
+      <c r="A88" s="6"/>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A89" s="5"/>
+      <c r="A89" s="6"/>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A90" s="5"/>
+      <c r="A90" s="6"/>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A91" s="5"/>
+      <c r="A91" s="6"/>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A92" s="5"/>
+      <c r="A92" s="6"/>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A93" s="5"/>
+      <c r="A93" s="6"/>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A94" s="5"/>
+      <c r="A94" s="6"/>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A95" s="5"/>
+      <c r="A95" s="6"/>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A96" s="5"/>
+      <c r="A96" s="6"/>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A97" s="5"/>
+      <c r="A97" s="6"/>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A98" s="5"/>
+      <c r="A98" s="6"/>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A99" s="5"/>
+      <c r="A99" s="6"/>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A100" s="5"/>
+      <c r="A100" s="6"/>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A101" s="5"/>
+      <c r="A101" s="6"/>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A102" s="5"/>
+      <c r="A102" s="6"/>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A103" s="5"/>
+      <c r="A103" s="6"/>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A104" s="5"/>
+      <c r="A104" s="6"/>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A105" s="5"/>
+      <c r="A105" s="6"/>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A106" s="5"/>
+      <c r="A106" s="6"/>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A107" s="5"/>
+      <c r="A107" s="6"/>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A108" s="5"/>
+      <c r="A108" s="6"/>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A109" s="5"/>
+      <c r="A109" s="6"/>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A110" s="5"/>
+      <c r="A110" s="6"/>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A111" s="5"/>
+      <c r="A111" s="6"/>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A112" s="5"/>
+      <c r="A112" s="6"/>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A113" s="5"/>
+      <c r="A113" s="6"/>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A114" s="5"/>
+      <c r="A114" s="6"/>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A115" s="5"/>
+      <c r="A115" s="6"/>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A116" s="5"/>
+      <c r="A116" s="6"/>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A117" s="5"/>
+      <c r="A117" s="6"/>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A118" s="5"/>
+      <c r="A118" s="6"/>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A119" s="5"/>
+      <c r="A119" s="6"/>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A120" s="5"/>
+      <c r="A120" s="6"/>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A121" s="5"/>
+      <c r="A121" s="6"/>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A122" s="5"/>
+      <c r="A122" s="6"/>
     </row>
     <row r="124" spans="1:1" ht="149" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
@@ -6697,9 +8130,38 @@
         <v>30</v>
       </c>
     </row>
-    <row r="130" spans="1:1" ht="212" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:2" ht="212" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="266" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>33</v>
+      </c>
+      <c r="B133" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>35</v>
+      </c>
+      <c r="B134" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>37</v>
+      </c>
+      <c r="B135" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -6709,4 +8171,27 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C81BFE5C-696B-624C-B4DA-B16538DFAD60}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="255.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="391" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>